--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE16040-B80E-4D24-A3C6-ACEDD76462A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4095" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30720" windowHeight="13371"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -30,7 +37,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -41,7 +47,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -52,10 +57,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>show_mode</t>
+  </si>
+  <si>
+    <t>asset_name</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
+    <t>UIPanelId</t>
+  </si>
+  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>UILevel</t>
+  </si>
+  <si>
+    <t>UIShowMode</t>
   </si>
   <si>
     <t>##group</t>
@@ -72,7 +95,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -83,7 +105,6 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -94,47 +115,60 @@
     <t>名字</t>
   </si>
   <si>
-    <t>UIPanelId</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UILevel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_mode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIShowMode</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>默认打开层级</t>
   </si>
   <si>
     <t>默认打开方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
+    <t>Startup</t>
   </si>
   <si>
     <t>主界面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+  </si>
+  <si>
+    <t>Cover</t>
+  </si>
+  <si>
+    <t>StartupPanel</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ome</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>B</t>
     </r>
     <r>
@@ -142,16 +176,68 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ottom</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Panel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ogin</t>
+    </r>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>M</t>
     </r>
     <r>
@@ -159,58 +245,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>id</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bottom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认打开层级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
+  </si>
+  <si>
+    <t>LoginPanel</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ome</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ogin</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>S</t>
     </r>
     <r>
@@ -218,85 +270,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>hop</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源路径</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>ShopPanel</t>
   </si>
   <si>
     <t>Joystick</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇杆</t>
   </si>
   <si>
     <t>Top</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>摇杆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Home</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Panel</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>JoystickPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Startup</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartupPanel</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>策略回合商店界面</t>
+  </si>
+  <si>
+    <t>StorePanel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,7 +326,6 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -316,43 +333,148 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +493,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -395,39 +691,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="1" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -685,28 +1259,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" ht="14.15" spans="1:27">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -716,14 +1289,14 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -747,7 +1320,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:27">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -778,24 +1351,24 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" s="2" customFormat="1" spans="1:27">
+      <c r="A3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -819,20 +1392,20 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>15</v>
+    <row r="4" s="2" customFormat="1" spans="1:27">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
@@ -856,24 +1429,24 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" s="1" customFormat="1" ht="14.15" spans="1:27">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
@@ -897,94 +1470,108 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" ht="14.15" spans="2:6">
       <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="14.15" spans="2:6">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="14.15" spans="2:6">
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="7" t="s">
+    <row r="10" spans="2:6">
+      <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="C10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="7" t="s">
+    <row r="11" spans="2:6">
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
+      <c r="F11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF8FAF-EF61-4004-8D79-013955A3FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13371"/>
+    <workbookView xWindow="5610" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -302,19 +295,53 @@
   </si>
   <si>
     <t>StorePanel</t>
+  </si>
+  <si>
+    <t>匹配界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatchingPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗主界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaMain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaMainPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,137 +371,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,182 +396,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -691,317 +420,37 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1259,27 +708,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.15" spans="1:27">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1289,13 +739,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1"/>
@@ -1320,7 +770,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:27">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1351,23 +801,23 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:27">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G3"/>
@@ -1392,19 +842,19 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:27">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="G4"/>
@@ -1429,7 +879,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="14.15" spans="1:27">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1439,13 +889,13 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="G5"/>
@@ -1470,92 +920,92 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="14.15" spans="2:6">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="14.15" spans="2:6">
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="14.15" spans="2:6">
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>38</v>
       </c>
@@ -1569,9 +1019,43 @@
         <v>40</v>
       </c>
     </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDF8FAF-EF61-4004-8D79-013955A3FC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC1D0D-3993-4B15-8590-33100728CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5610" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1245" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -30,6 +30,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -40,6 +41,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -88,6 +90,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -98,6 +101,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -137,6 +141,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,6 +152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -159,6 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -169,6 +176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -181,6 +189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -191,6 +200,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -203,6 +213,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -213,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -223,46 +235,26 @@
     <t>登录</t>
   </si>
   <si>
+    <t>LoginPanel</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>M</t>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
-    <t>LoginPanel</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -282,58 +274,101 @@
     <t>摇杆</t>
   </si>
   <si>
+    <t>JoystickPanel</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>策略回合商店界面</t>
+  </si>
+  <si>
+    <t>StorePanel</t>
+  </si>
+  <si>
+    <t>匹配界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mid</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MatchingPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matching</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗主界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cover</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaMain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaMainPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseHero</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄选择界面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChooseHeroPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回按钮的界面</t>
+  </si>
+  <si>
+    <t>货币状态界面</t>
+  </si>
+  <si>
     <t>Top</t>
-  </si>
-  <si>
-    <t>JoystickPanel</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>策略回合商店界面</t>
-  </si>
-  <si>
-    <t>StorePanel</t>
-  </si>
-  <si>
-    <t>匹配界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MatchingPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matching</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗主界面</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mid</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cover</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArenaMain</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArenaMainPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyPanel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -353,6 +388,7 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -360,6 +396,7 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -367,12 +404,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -714,19 +753,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="6" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -962,100 +1001,171 @@
         <v>28</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>40</v>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FC1D0D-3993-4B15-8590-33100728CF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF88A86-B77E-4A5C-AE5C-1AF81E3C00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="4410" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="4455" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -334,18 +334,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ChooseHero</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄选择界面</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ChooseHeroPanel</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Back</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -369,6 +361,77 @@
   </si>
   <si>
     <t>MoneyPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeNamePanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inventory</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventoryPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具信息</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemInfoPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Panel</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA17"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,7 +828,7 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1114,10 +1177,10 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>21</v>
@@ -1125,42 +1188,93 @@
       <c r="E15" t="s">
         <v>41</v>
       </c>
-      <c r="F15" t="s">
-        <v>53</v>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>41</v>
       </c>
       <c r="F17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF88A86-B77E-4A5C-AE5C-1AF81E3C00A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FD3C8-BC2C-41FE-BD1C-78B7A9856699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="4455" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -432,6 +432,30 @@
       </rPr>
       <t>Panel</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomList</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomListPanel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -816,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1277,6 +1301,40 @@
         <v>68</v>
       </c>
     </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Luban/Datas/ui_panel_config.xlsx
+++ b/Luban/Datas/ui_panel_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Github\Jam101\Luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86FD3C8-BC2C-41FE-BD1C-78B7A9856699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C83D45E-12C8-449E-854E-D5D13C887AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -456,6 +456,18 @@
   </si>
   <si>
     <t>RoomListPanel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingPanel</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -840,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1292,7 +1304,7 @@
         <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>41</v>
@@ -1309,7 +1321,7 @@
         <v>72</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>41</v>
@@ -1333,6 +1345,23 @@
       </c>
       <c r="F22" s="5" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
